--- a/GPIO schema.xlsx
+++ b/GPIO schema.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rlmar\repos\BerthaPi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFE4D655-E2D6-4417-951E-EF32A98E866F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D211122-38BE-4E34-B814-BEF0B557846B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{FD134F8F-313C-42D5-8DAB-70E9528291B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FD134F8F-313C-42D5-8DAB-70E9528291B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bertha" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="87">
   <si>
     <t>3.3v</t>
   </si>
@@ -198,13 +199,112 @@
   </si>
   <si>
     <t>IRSensor (travel distance)</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>EXIT</t>
+  </si>
+  <si>
+    <t>DIST</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>CENTRE</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>CLOSE</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>LIGHTS</t>
+  </si>
+  <si>
+    <t>CLAW</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>DOWN</t>
+  </si>
+  <si>
+    <t>LEFT</t>
+  </si>
+  <si>
+    <t>RIGHT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +347,32 @@
       <name val="Cascadia Code"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cascadia Code"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="16">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,6 +463,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -554,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -569,12 +717,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -595,22 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -622,103 +749,223 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,8 +976,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD3B5E9"/>
       <color rgb="FF4895D4"/>
-      <color rgb="FFD3B5E9"/>
       <color rgb="FFFFA7A7"/>
     </mruColors>
   </colors>
@@ -743,6 +990,450 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149679</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Arrow: Up 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3BC7BC9-E5E6-9C83-B675-6B96B4A71082}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12273643" y="1945821"/>
+          <a:ext cx="312964" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>465364</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>274865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Up 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F0740E8-AA2F-46FB-8A93-D957F919B788}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="12276364" y="2533650"/>
+          <a:ext cx="312964" cy="435429"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>149681</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>217715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>462645</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>221226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Octagon 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0955D997-EEC0-2E9E-93D7-AB02572B19BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12273645" y="2313215"/>
+          <a:ext cx="312964" cy="302868"/>
+        </a:xfrm>
+        <a:prstGeom prst="octagon">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>122465</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Arrow: Curved Right 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EEDEC17-09AD-4B7D-23B5-5144BD6CF942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11756572" y="2177143"/>
+          <a:ext cx="489857" cy="653142"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedRightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>506186</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>383721</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Arrow: Curved Left 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAA58934-EDD5-40AD-864B-4216F1522D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12630150" y="2179865"/>
+          <a:ext cx="489857" cy="653142"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedLeftArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>258537</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Arrow: Bent 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBE8FDD2-F851-3C88-1B6C-46B26240EFB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11838215" y="1646464"/>
+          <a:ext cx="544286" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>356510</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>288474</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Arrow: Bent 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1049921D-C8A8-411B-8BF0-9BE33417E732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12480474" y="1649185"/>
+          <a:ext cx="544286" cy="530679"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-AU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1044,29 +1735,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55CA4FD-2B25-446B-8CE4-309DDE92CE2E}">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="9.77734375" customWidth="1"/>
-    <col min="4" max="5" width="15.109375" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="7" width="28" customWidth="1"/>
-    <col min="8" max="9" width="15.109375" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="40"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="4" t="s">
         <v>44</v>
       </c>
@@ -1074,481 +1765,1160 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="30">
+      <c r="E2" s="46">
         <v>1</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="35">
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="40">
         <v>2</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="3" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="47">
         <v>3</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="44"/>
-      <c r="H3" s="35">
+      <c r="G3" s="24"/>
+      <c r="H3" s="40">
         <v>4</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="66"/>
       <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="47">
         <v>5</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="41">
         <v>6</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
-    </row>
-    <row r="5" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="48">
         <v>7</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="36">
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="42">
         <v>8</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="63" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
+    <row r="6" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="49">
         <v>9</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="36">
+      <c r="F6" s="29"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="42">
         <v>10</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
+      <c r="K6" s="64"/>
+    </row>
+    <row r="7" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="48">
         <v>11</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="27"/>
+      <c r="G7" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="37">
+      <c r="H7" s="43">
         <v>12</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="48">
         <v>13</v>
       </c>
-      <c r="F8" s="51" t="s">
+      <c r="F8" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="11">
+      <c r="G8" s="32"/>
+      <c r="H8" s="41">
         <v>14</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-    </row>
-    <row r="9" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="48">
         <v>15</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F9" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="43">
         <v>16</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="46">
         <v>17</v>
       </c>
-      <c r="F10" s="47"/>
-      <c r="G10" s="55" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="43">
         <v>18</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="50">
         <v>19</v>
       </c>
-      <c r="F11" s="47"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="11">
+      <c r="F11" s="27"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="41">
         <v>20</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="18" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="68"/>
+      <c r="C12" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="50">
         <v>21</v>
       </c>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="38">
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="44">
         <v>22</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="18" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="69"/>
+      <c r="C13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="50">
         <v>23</v>
       </c>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="38">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="44">
         <v>24</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
+    <row r="14" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
       <c r="D14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="49">
         <v>25</v>
       </c>
-      <c r="F14" s="49"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="38">
+      <c r="F14" s="29"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="44">
         <v>26</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="18" t="s">
+      <c r="J14" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="28"/>
-    </row>
-    <row r="15" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="25" t="s">
+      <c r="K14" s="71"/>
+    </row>
+    <row r="15" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="51">
         <v>27</v>
       </c>
-      <c r="F15" s="47"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="39">
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="45">
         <v>28</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="26"/>
-    </row>
-    <row r="16" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="48">
         <v>29</v>
       </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="11">
+      <c r="F16" s="27"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="41">
         <v>30</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="48">
         <v>31</v>
       </c>
-      <c r="F17" s="47"/>
-      <c r="G17" s="56" t="s">
+      <c r="F17" s="27"/>
+      <c r="G17" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="43">
         <v>32</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="13"/>
-      <c r="K17" s="14"/>
-    </row>
-    <row r="18" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
       <c r="D18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="48">
         <v>33</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="11">
+      <c r="G18" s="32"/>
+      <c r="H18" s="41">
         <v>34</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J18" s="10"/>
-      <c r="K18" s="11"/>
-    </row>
-    <row r="19" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B19" s="18" t="s">
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="50">
         <v>35</v>
       </c>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="38">
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="44">
         <v>36</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="67" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:11" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
+    <row r="20" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="48">
         <v>37</v>
       </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="38">
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="44">
         <v>38</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="18" t="s">
+      <c r="J20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="2:11" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
+      <c r="K20" s="68"/>
+    </row>
+    <row r="21" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="49">
         <v>39</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59" t="s">
+      <c r="F21" s="38"/>
+      <c r="G21" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="38">
+      <c r="H21" s="44">
         <v>40</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="69"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="K19:K21"/>
     <mergeCell ref="K13:K14"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E6ED0F6-2000-4F3D-8083-EAAC64800858}">
+  <dimension ref="B1:U24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="7" width="28" customWidth="1"/>
+    <col min="8" max="9" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:21" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="62"/>
+      <c r="H1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="46">
+        <v>1</v>
+      </c>
+      <c r="F2" s="74"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="40">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="47">
+        <v>3</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="77"/>
+      <c r="H3" s="40">
+        <v>4</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="M3" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="R3" s="52"/>
+      <c r="S3" s="52"/>
+      <c r="T3" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="U3" s="52"/>
+    </row>
+    <row r="4" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="66"/>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="47">
+        <v>5</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="41">
+        <v>6</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="9"/>
+      <c r="M4" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="P4" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="T4" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="U4" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="48">
+        <v>7</v>
+      </c>
+      <c r="F5" s="80"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="42">
+        <v>8</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="59" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="T5" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="U5" s="58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="49">
+        <v>9</v>
+      </c>
+      <c r="F6" s="82"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="42">
+        <v>10</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="64"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+    </row>
+    <row r="7" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="48">
+        <v>11</v>
+      </c>
+      <c r="F7" s="80"/>
+      <c r="G7" s="83" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="43">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="R7" s="52"/>
+    </row>
+    <row r="8" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="48">
+        <v>13</v>
+      </c>
+      <c r="F8" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="85"/>
+      <c r="H8" s="41">
+        <v>14</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="R8" s="52"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="U8" s="56"/>
+    </row>
+    <row r="9" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="48">
+        <v>15</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="43">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="12"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q9" s="52"/>
+      <c r="S9" s="59" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="46">
+        <v>17</v>
+      </c>
+      <c r="F10" s="80"/>
+      <c r="G10" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="43">
+        <v>18</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="S10" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="U10" s="58" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="50">
+        <v>19</v>
+      </c>
+      <c r="F11" s="80"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="41">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="M11" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="72"/>
+      <c r="T11" s="73" t="s">
+        <v>82</v>
+      </c>
+      <c r="U11" s="73"/>
+    </row>
+    <row r="12" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="68"/>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="50">
+        <v>21</v>
+      </c>
+      <c r="F12" s="80"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="44">
+        <v>22</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+    </row>
+    <row r="13" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="69"/>
+      <c r="C13" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="50">
+        <v>23</v>
+      </c>
+      <c r="F13" s="80"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="44">
+        <v>24</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+    </row>
+    <row r="14" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="49">
+        <v>25</v>
+      </c>
+      <c r="F14" s="82"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="44">
+        <v>26</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="71"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+    </row>
+    <row r="15" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="51">
+        <v>27</v>
+      </c>
+      <c r="F15" s="80"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="45">
+        <v>28</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="17"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="2:21" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="48">
+        <v>29</v>
+      </c>
+      <c r="F16" s="80"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="41">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="48">
+        <v>31</v>
+      </c>
+      <c r="F17" s="80"/>
+      <c r="G17" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="43">
+        <v>32</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="48">
+        <v>33</v>
+      </c>
+      <c r="F18" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="85"/>
+      <c r="H18" s="41">
+        <v>34</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="50">
+        <v>35</v>
+      </c>
+      <c r="F19" s="80"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="44">
+        <v>36</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="J19" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19" s="67" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="48">
+        <v>37</v>
+      </c>
+      <c r="F20" s="80"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="44">
+        <v>38</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="68"/>
+    </row>
+    <row r="21" spans="2:11" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="49">
+        <v>39</v>
+      </c>
+      <c r="F21" s="91"/>
+      <c r="G21" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="44">
+        <v>40</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="69"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="K19:K21"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="K13:K14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>